--- a/data/income_statement/2digits/total/41_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/41_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>41-Construction of buildings</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>41-Construction of buildings</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>48504315.84344</v>
+        <v>48504354.71028</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>49943192.96291</v>
+        <v>49958328.30799001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>65229051.39309001</v>
+        <v>65292176.34051999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>79481092.69563</v>
+        <v>79966552.00570999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>93072878.49405999</v>
+        <v>94282433.91098998</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>110341422.66446</v>
+        <v>113293272.75604</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>118445946.71776</v>
+        <v>128512072.19485</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>157172410.22269</v>
+        <v>157406738.88923</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>201658725.86951</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>240269065.1419</v>
+        <v>241821376.23632</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>243977723.45866</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>250543154.40371</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>262423516.727</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>45989276.4751</v>
+        <v>45989313.2251</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>46958715.48371</v>
+        <v>46973583.49101</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>60197767.92181</v>
+        <v>60260750.87441</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>73893200.81637001</v>
+        <v>74370479.09058</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>86558275.07043999</v>
+        <v>87716489.75304002</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>103559881.01577</v>
+        <v>106294430.39934</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>112226499.24514</v>
+        <v>121918062.8343</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>148880563.41096</v>
+        <v>149109885.5355</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>189274300.51511</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>226708823.6226</v>
+        <v>228241641.13296</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>227773540.37369</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>234236563.13305</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>247751681.055</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1639999.41092</v>
@@ -1034,76 +950,86 @@
         <v>2025000.59432</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>3650250.476</v>
+        <v>3650323.46572</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>4302602.83679</v>
+        <v>4304250.08557</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>4802384.12012</v>
+        <v>4838804.02071</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>4831469.93161</v>
+        <v>4953486.5072</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>3884157.41969</v>
+        <v>4068453.25089</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>5156299.18706</v>
+        <v>5158487.522299999</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>8388131.658020001</v>
+        <v>8388131.658019999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>9188314.897879999</v>
+        <v>9196969.357559999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>10026919.41865</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>10050848.89387</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>9953896.734999999</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>875039.95742</v>
+        <v>875042.0742600001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>959476.88488</v>
+        <v>959744.2226599999</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>1381032.99528</v>
+        <v>1381102.00039</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>1285289.04247</v>
+        <v>1291822.82956</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>1712219.3035</v>
+        <v>1727140.13724</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>1950071.71708</v>
+        <v>2045355.8495</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>2335290.05293</v>
+        <v>2525556.10966</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>3135547.62467</v>
+        <v>3138365.831429999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>3996293.696380001</v>
+        <v>3996293.69638</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>4371926.62142</v>
+        <v>4382765.745800001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>6177263.66632</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>6255742.37679</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>4717938.937</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>165653.76175</v>
@@ -1115,73 +1041,83 @@
         <v>191912.86015</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>279314.1715</v>
+        <v>280258.64744</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>395874.4951400001</v>
+        <v>400021.8093</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>809314.19797</v>
+        <v>830340.57998</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1830141.73382</v>
+        <v>1863662.82141</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1027692.94064</v>
+        <v>1028324.26144</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>1417560.49561</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1609252.26872</v>
+        <v>1611192.30105</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1555762.77071</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1568104.62737</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2542496.861</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>118229.62947</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>95666.13276000001</v>
+        <v>95666.13275999999</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>142658.32755</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>223472.0828</v>
+        <v>224414.94874</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>340036.88767</v>
+        <v>343978.6435299999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>713911.5471200001</v>
+        <v>734935.5491000001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1693687.08668</v>
+        <v>1724314.81812</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>841921.9567999999</v>
+        <v>842524.5026800002</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>1172747.04308</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1222582.31772</v>
+        <v>1224483.46708</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1252733.63749</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1263450.72579</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>2168762.906</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>33878.44159</v>
@@ -1193,34 +1129,39 @@
         <v>35340.96075999999</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>41192.99058000001</v>
+        <v>41192.99058</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>40166.10298999999</v>
+        <v>40371.66129</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>75790.31015</v>
+        <v>75790.92074</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>104645.90081</v>
+        <v>106992.48624</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>130973.1517</v>
+        <v>131001.15542</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>189501.35607</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>198445.17817</v>
+        <v>198447.15544</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>175731.45123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>177480.17147</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>241272.753</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>13545.69069</v>
@@ -1232,112 +1173,127 @@
         <v>13913.57184</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>14649.09812</v>
+        <v>14650.70812</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>15671.50448</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>19612.3407</v>
+        <v>19614.11014</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>31808.74633</v>
+        <v>32355.51705</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>54797.83214</v>
+        <v>54798.60333999999</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>55312.09645999999</v>
+        <v>55312.09646</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>188224.77283</v>
+        <v>188261.67853</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>127297.68199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>127173.73011</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>132461.202</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>48338662.08169</v>
+        <v>48338700.94852999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>49814655.18456001</v>
+        <v>49829790.52964</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>65037138.53294</v>
+        <v>65100263.48036999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>79201778.52412999</v>
+        <v>79686293.35826999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>92677003.99892001</v>
+        <v>93882412.10169001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>109532108.46649</v>
+        <v>112462932.17606</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>116615804.98394</v>
+        <v>126648409.37344</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>156144717.28205</v>
+        <v>156378414.62779</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>200241165.3739</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>238659812.87318</v>
+        <v>240210183.93527</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>242421960.68795</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>248975049.77634</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>259881019.866</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>42014859.80766</v>
+        <v>42014902.15821</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>42998389.12563</v>
+        <v>43012726.17249</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>55660375.37777</v>
+        <v>55731132.28664</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>68748985.89103</v>
+        <v>69206187.19687</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>81324677.88913998</v>
+        <v>82408852.54386</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>97137436.30661</v>
+        <v>100036950.83305</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>101602189.20337</v>
+        <v>110920044.57685</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>138048936.17364</v>
+        <v>138270386.93482</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>175931726.24356</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>211153363.47568</v>
+        <v>212646759.01451</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>209296327.77574</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>215419408.30055</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>225624595.355</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>10820530.29229</v>
@@ -1346,427 +1302,482 @@
         <v>10537319.95015</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>15008003.88054</v>
+        <v>15034780.35584</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>20574994.05868</v>
+        <v>20637010.98595</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>25721437.09067</v>
+        <v>26222895.43451</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>31504247.23369</v>
+        <v>32874066.00508001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>34902025.09118</v>
+        <v>36956900.57286</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>48771457.31460999</v>
+        <v>48883734.86727001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>61261099.86612999</v>
+        <v>61261099.86613</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>76397457.97106999</v>
+        <v>76608566.98638999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>72820171.10676001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>74355437.93422002</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>68778101.678</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>8920348.93581</v>
+        <v>8920348.935810002</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>10017503.67685</v>
+        <v>10023708.88727</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>13367110.06255</v>
+        <v>13392429.38141</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>15675623.80866</v>
+        <v>15817301.6269</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>18419563.15344</v>
+        <v>18496753.84133</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>18198463.06093</v>
+        <v>18433602.35256</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>21450018.16809</v>
+        <v>22524693.13038</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>30904754.6033</v>
+        <v>30920392.21297</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>40338006.19550999</v>
+        <v>40338006.19551</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>43341504.66768</v>
+        <v>43657180.99574</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>43350115.11189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>44904210.98365</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>55556372.636</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>21940717.64621</v>
+        <v>21940759.99676</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>22008379.10015</v>
+        <v>22016510.93659</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>26655686.17582</v>
+        <v>26674347.29053</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>31201142.874</v>
+        <v>31454430.40157999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>36230328.22912</v>
+        <v>36718424.98852</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>45055389.26808</v>
+        <v>46241278.751</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>44069473.52631</v>
+        <v>50162035.61942</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>56870125.33077</v>
+        <v>56954081.06797</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>72571836.34855001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>89197496.56200998</v>
+        <v>90163142.29439999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>90592416.34694999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>93606388.62519</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>98650255.08499999</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>333262.93335</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>435186.3984800001</v>
+        <v>435186.39848</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>629575.2588599999</v>
+        <v>629575.2588600001</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1297225.14969</v>
+        <v>1297444.18244</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>953349.4159099999</v>
+        <v>970778.2794999999</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>2379336.74391</v>
+        <v>2488003.724409999</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>1180672.41779</v>
+        <v>1276415.25419</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1502598.92496</v>
+        <v>1512178.78661</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>1760783.83337</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>2216904.27492</v>
+        <v>2217868.73798</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>2533625.210140001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>2553370.75749</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>2639865.956</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>6323802.27403</v>
+        <v>6323798.79032</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>6816266.058929999</v>
+        <v>6817064.357150001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>9376763.155169999</v>
+        <v>9369131.193730002</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>10452792.6331</v>
+        <v>10480106.1614</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>11352326.10978</v>
+        <v>11473559.55783</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>12394672.15988</v>
+        <v>12425981.34301</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>15013615.78057</v>
+        <v>15728364.79659</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>18095781.10841</v>
+        <v>18108027.69297</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>24309439.13034</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>27506449.3975</v>
+        <v>27563424.92076</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>33125632.91221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>33555641.47579</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>34256424.511</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>3564918.71567</v>
+        <v>3564858.0634</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>4107028.45585</v>
+        <v>4109310.13416</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>5390784.076440001</v>
+        <v>5393964.920330001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>5849311.73117</v>
+        <v>5869911.35821</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>6494059.050079999</v>
+        <v>6560510.99707</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>7499328.183829999</v>
+        <v>7641241.8995</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>8433221.322790001</v>
+        <v>9109938.088950001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>10812127.49452</v>
+        <v>10845029.86946</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>13168121.22727</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>15524568.52484</v>
+        <v>15586958.30277</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>16650880.51712</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>16917761.83597</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>18121419.413</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>13602.39481</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>33537.12175999999</v>
+        <v>33537.12176</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>10658.30072</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>13279.35514</v>
+        <v>13292.28841</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>18063.67956</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>20984.64438</v>
+        <v>20985.64438</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>15891.56006</v>
+        <v>16007.58951</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>31398.47332</v>
+        <v>31419.5689</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>25229.68952</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>25752.22363</v>
+        <v>25754.2685</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>34937.56153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>35126.15948</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>15749.845</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>430344.11686</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>511757.6764</v>
+        <v>511762.8019</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>839067.88026</v>
+        <v>839135.15751</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>820432.02629</v>
+        <v>821412.8296000001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>858903.8582900001</v>
+        <v>869497.2017</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>989659.53421</v>
+        <v>1020137.64662</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1038645.27989</v>
+        <v>1163408.72761</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1395683.69636</v>
+        <v>1396707.51698</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>1787165.3562</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>2142839.79056</v>
+        <v>2151056.06072</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>2329302.03703</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2359104.02759</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>2710910.665</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>3120972.204</v>
+        <v>3120911.55173</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>3561733.65769</v>
+        <v>3564010.2105</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>4541057.89546</v>
+        <v>4544171.462099999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>5015600.34974</v>
+        <v>5035206.2402</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>5617091.512230001</v>
+        <v>5672950.115809999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>6488684.005240001</v>
+        <v>6600118.6085</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>7378684.48284</v>
+        <v>7930521.77183</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>9385045.32484</v>
+        <v>9416902.78358</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>11355726.18155</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>13355976.51065</v>
+        <v>13410147.97355</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>14286640.91856</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>14523531.6489</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>15394758.903</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>2758883.55836</v>
+        <v>2758940.72692</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>2709237.60308</v>
+        <v>2707754.22299</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>3985979.07873</v>
+        <v>3975166.2734</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>4603480.90193</v>
+        <v>4610194.80319</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>4858267.0597</v>
+        <v>4913048.56076</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>4895343.976050001</v>
+        <v>4784739.443510001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>6580394.457780001</v>
+        <v>6618426.707640002</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>7283653.61389</v>
+        <v>7262997.82351</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>11141317.90307</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>11981880.87266</v>
+        <v>11976466.61799</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>16474752.39509</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>16637879.63982</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>16135005.098</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>3035290.74744</v>
+        <v>3035295.639150001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>3471466.81235</v>
+        <v>3478122.992180001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>4518155.63863</v>
+        <v>4523780.987</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>4197678.05843</v>
+        <v>4209600.687270001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>6169649.63226</v>
+        <v>6432145.416569999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>8502031.42578</v>
+        <v>8842749.110599998</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>11008689.66546</v>
+        <v>13602860.99699</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>14583745.72042</v>
+        <v>14621412.77516</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>18910457.03591</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>41478941.51405</v>
+        <v>41525407.09542</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>24898035.64895</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>24998366.40636</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>33447950.176</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>284425.48908</v>
@@ -1775,58 +1786,63 @@
         <v>294050.22929</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>289290.5130800001</v>
+        <v>289470.34747</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>354722.03764</v>
+        <v>355841.11404</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>537440.4745</v>
+        <v>537764.4941499999</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>543121.13185</v>
+        <v>545480.3267399999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>713422.7809199999</v>
+        <v>796412.4399999999</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>855103.91149</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>844977.6743600001</v>
+        <v>844977.6743600002</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>1293085.55393</v>
+        <v>1294053.05393</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>1328541.64646</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1329751.6312</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>1238484.529</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>345694.9723499999</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>179352.29226</v>
+        <v>185452.05596</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>190567.0985</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>364707.64294</v>
+        <v>364812.69694</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>655645.8693199999</v>
+        <v>670267.1854</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>1158407.2706</v>
+        <v>1174412.16772</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>627565.9345900001</v>
+        <v>774250.00046</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>790393.9779500001</v>
@@ -1838,73 +1854,83 @@
         <v>4018811.70999</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>2184181.9503</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>2193012.46263</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>2554457.821</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>454331.26531</v>
+        <v>454336.15702</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>438027.2602</v>
+        <v>438441.6785699999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>593767.16554</v>
+        <v>593944.8386499999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>614184.5435799999</v>
+        <v>617066.78437</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>650393.7753399999</v>
+        <v>670248.57062</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>982696.70661</v>
+        <v>1024472.01498</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1160758.43105</v>
+        <v>1441773.77043</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1544146.52925</v>
+        <v>1548470.13003</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>2175742.79351</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>3256137.70814</v>
+        <v>3257705.62583</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>3337415.23505</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>3361012.28038</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>2762580.841</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>8372.77908</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>6995.87849</v>
+        <v>6995.878489999999</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>4989.20576</v>
+        <v>4989.205759999999</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>5527.02413</v>
+        <v>5544.00313</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>7193.85615</v>
+        <v>7193.856150000001</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>7303.2339</v>
+        <v>8325.41012</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>20802.7073</v>
+        <v>20847.67773</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>17458.73538</v>
@@ -1913,16 +1939,21 @@
         <v>30309.74578</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>69555.30699</v>
+        <v>69605.76233</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>42098.33011</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>42139.01272999999</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>48295.478</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>82256.14804</v>
@@ -1934,19 +1965,19 @@
         <v>243228.84779</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>223886.9038</v>
+        <v>223887.19051</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>223602.73992</v>
+        <v>223670.83429</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>289884.24665</v>
+        <v>289896.19697</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>34450.36513000001</v>
+        <v>35803.18347</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>63997.9999</v>
+        <v>64038.00090000001</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>23789.27619</v>
@@ -1955,94 +1986,109 @@
         <v>43597.60382</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>106371.66395</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>106671.13652</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>67535.966</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>67695.71545</v>
+        <v>67695.71544999999</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>92388.65241000001</v>
+        <v>92388.65417000001</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>204350.24543</v>
+        <v>204350.36115</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>202404.03002</v>
+        <v>202417.71482</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>495331.37421</v>
+        <v>495340.48236</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>86046.38456000001</v>
+        <v>86384.58414000002</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>184548.71142</v>
+        <v>317035.28221</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>187671.15017</v>
+        <v>187794.66902</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>500842.79424</v>
+        <v>500842.7942400001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>357457.03616</v>
+        <v>357457.8795</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>689055.9546000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>689137.313</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>583657.907</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>1291196.26916</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1478534.78906</v>
+        <v>1478588.68941</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>2272602.73405</v>
+        <v>2277606.55981</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1630128.84028</v>
+        <v>1637481.93275</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2267960.88511</v>
+        <v>2459049.88335</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>3864765.56213</v>
+        <v>4106643.94358</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>6497745.662589999</v>
+        <v>8142056.650220001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>8732325.20236</v>
+        <v>8746073.191540001</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>11093937.37462</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>28478351.28559</v>
+        <v>28506534.27945999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>12268258.95244</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>12324800.39416</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>22497392.16</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>38994.24432</v>
+        <v>38994.24431999999</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>24687.9391</v>
@@ -2051,16 +2097,16 @@
         <v>44706.23545</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>65081.31902</v>
+        <v>65116.46716000001</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>93801.27573000002</v>
+        <v>93814.28696000001</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>82388.37181</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>206798.92849</v>
+        <v>207175.55875</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>197114.93133</v>
@@ -2069,16 +2115,21 @@
         <v>308537.54601</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>237053.94571</v>
+        <v>237059.72974</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>192895.14116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>192857.10948</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>129338.539</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>6886.821910000001</v>
@@ -2087,22 +2138,22 @@
         <v>40289.45375000001</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>6120.33153</v>
+        <v>6120.331529999999</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>3258.13858</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>6561.396470000001</v>
+        <v>6561.39647</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>1776.79255</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>2742.0978</v>
+        <v>2752.66349</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>4721.604979999999</v>
+        <v>5472.3153</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>6292.851110000001</v>
@@ -2111,91 +2162,106 @@
         <v>5094.102019999999</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>5223.990559999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>6810.580089999999</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>13169.185</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>455437.04274</v>
+        <v>455437.0427399999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>826545.0057999999</v>
+        <v>826633.1014500001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>668533.2615000001</v>
+        <v>668797.1608900001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>733777.57844</v>
+        <v>734174.64497</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>1231717.98551</v>
+        <v>1268234.42682</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1485641.72512</v>
+        <v>1522969.30199</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1559854.04617</v>
+        <v>1864753.77023</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>2190811.67761</v>
+        <v>2209492.91222</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>2686161.8629</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>3719797.2617</v>
+        <v>3735487.3488</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>4743992.78432</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>4752174.48617</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>3553037.75</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>1772335.49635</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>1672568.78945</v>
+        <v>1673601.86904</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>3064755.963</v>
+        <v>3069511.938500001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1974062.18684</v>
+        <v>1978163.86553</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>3768152.39363</v>
+        <v>4093320.62358</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>4432007.48206</v>
+        <v>4696901.65125</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>9258360.156459998</v>
+        <v>11166948.99965</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>12355563.52299</v>
+        <v>12372744.55802</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>15220690.96101</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>39841221.01024</v>
+        <v>39876382.58460001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>17502918.58296</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>17563983.35426</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>30229879.182</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>11142.5171</v>
@@ -2204,58 +2270,63 @@
         <v>9480.22284</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>9583.169230000001</v>
+        <v>9583.169229999998</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>13165.52217</v>
+        <v>13192.28265</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>13982.07608</v>
+        <v>14072.91451</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>20274.52706</v>
+        <v>20402.45341</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>16375.91486</v>
+        <v>16737.09348</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>27813.60468</v>
+        <v>27815.64366000001</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>33737.86008</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>41313.99142</v>
+        <v>41342.25439</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>75815.78509999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>76219.73656</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>67278.91499999999</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>98019.70130000002</v>
+        <v>98019.7013</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>50942.58432999999</v>
+        <v>50942.58433</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>70282.11068000001</v>
+        <v>70317.11826</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>109261.88261</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>76039.77851</v>
+        <v>104903.02736</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>108626.53109</v>
+        <v>108913.86645</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>214642.01413</v>
+        <v>236318.18882</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>187213.84489</v>
@@ -2264,16 +2335,21 @@
         <v>263736.43632</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>352927.36276</v>
+        <v>352927.72236</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>467891.13485</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>468429.331</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>435853.229</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>24458.50532</v>
@@ -2285,19 +2361,19 @@
         <v>34665.91144</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>27339.83833</v>
+        <v>27341.78347</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>67726.14433000001</v>
+        <v>67726.14433</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>28392.68519</v>
+        <v>28392.93096</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>70380.69553</v>
+        <v>117122.24136</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>71182.65738</v>
+        <v>71220.90445999999</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>327941.44397</v>
@@ -2306,52 +2382,62 @@
         <v>192313.0078</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>108742.5791</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>108758.42767</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>86108.478</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>1199423.80682</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1335374.11921</v>
+        <v>1335412.87031</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>2605280.54611</v>
+        <v>2609109.74475</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1292259.73296</v>
+        <v>1295744.61561</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2801686.55498</v>
+        <v>3095264.42349</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>3661777.94303</v>
+        <v>3895058.817600001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>8035519.985709999</v>
+        <v>9732887.69973</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>10999572.30625</v>
+        <v>11014789.98114</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>12494075.44362</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>35185597.14644</v>
+        <v>35219596.4075</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>14707439.61328</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>14756363.45788</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>27571895.053</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>32462.79837</v>
@@ -2369,10 +2455,10 @@
         <v>95632.78277999999</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>94950.74801</v>
+        <v>94950.74801000001</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>220362.47515</v>
+        <v>220619.53167</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>256174.30539</v>
@@ -2384,16 +2470,21 @@
         <v>256854.66825</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>170978.03592</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>170958.19973</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>127486.071</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>4437.882769999999</v>
+        <v>4437.88277</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>39721.2135</v>
@@ -2408,10 +2499,10 @@
         <v>2391.40224</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>1233.44544</v>
+        <v>1233.44554</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>4738.41292</v>
+        <v>4744.775360000001</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>1506.49543</v>
@@ -2423,130 +2514,150 @@
         <v>2400.84284</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>982.74328</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>994.26796</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>1837.381</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>402390.28467</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>202056.43879</v>
+        <v>203050.76728</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>298905.25776</v>
+        <v>299797.02704</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>454352.03575</v>
+        <v>454940.12617</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>710693.65471</v>
+        <v>713329.9288700001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>516751.60224</v>
+        <v>547949.38928</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>696340.65816</v>
+        <v>838519.46923</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>812100.30897</v>
+        <v>814023.3830499999</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>1792893.27135</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>3809813.99073</v>
+        <v>3810947.68146</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1971068.69143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1982259.93346</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1939420.055</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>1290381.28327</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1187697.67168</v>
+        <v>1190347.34375</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1606999.18858</v>
+        <v>1610202.82938</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1884836.00422</v>
+        <v>1895431.79063</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>2281662.43783</v>
+        <v>2350026.89433</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>3365238.62221</v>
+        <v>3446167.84838</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>4535753.40458</v>
+        <v>5317633.69227</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>6645326.441130001</v>
+        <v>6670734.575910001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>8793641.991609998</v>
+        <v>8793641.99161</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>16939307.40182</v>
+        <v>16944304.03389</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>15955927.94899</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>16010952.42644</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>19056021.766</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>1035240.93277</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>956075.5277699999</v>
+        <v>958725.1998399999</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1315775.09826</v>
+        <v>1318957.86329</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1584540.73952</v>
+        <v>1595004.72327</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1931161.87276</v>
+        <v>1993007.45977</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>2960189.18096</v>
+        <v>3038439.84539</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>3970302.38947</v>
+        <v>4722744.99854</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>6012535.381569999</v>
+        <v>6037727.570889999</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>7814119.217200001</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>14499495.02315</v>
+        <v>14503085.67701</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>14358639.17452</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>14410200.64455</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>16343881.021</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>255140.3505</v>
@@ -2555,115 +2666,130 @@
         <v>231622.14391</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>291224.09032</v>
+        <v>291244.9660900001</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>300295.2647000001</v>
+        <v>300427.0673599999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>350500.56507</v>
+        <v>357019.43456</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>405049.4412499999</v>
+        <v>407728.00299</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>565451.01511</v>
+        <v>594888.6937300001</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>632791.0595600001</v>
+        <v>633007.0050199999</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>979522.77441</v>
+        <v>979522.7744100001</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>2439812.37867</v>
+        <v>2441218.35688</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1597288.77447</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1600751.78189</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2712140.745</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>2731457.52618</v>
+        <v>2731519.58645</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>3320437.9543</v>
+        <v>3321928.002379999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>3832379.56578</v>
+        <v>3819232.49252</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>4942260.7693</v>
+        <v>4946199.8343</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>4978101.8605</v>
+        <v>4901846.45942</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>5600129.29756</v>
+        <v>5484419.05448</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>3794970.562200001</v>
+        <v>3736705.01271</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>2866509.37019</v>
+        <v>2840931.46474</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>6037441.98636</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-3319706.02535</v>
+        <v>-3318812.90508</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>7913941.51209</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>8061310.26548</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>297054.326</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>667173.2336</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1097460.32011</v>
+        <v>1097530.63789</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>973441.2175300001</v>
+        <v>973714.6871100001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1684908.68969</v>
+        <v>1691512.67581</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>1178987.04869</v>
+        <v>1207335.36344</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1988607.96114</v>
+        <v>2086267.53669</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1773991.6662</v>
+        <v>1967105.793</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>2714603.328</v>
+        <v>2728248.61305</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>3449363.235979999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>4061388.28961</v>
+        <v>4066622.73031</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>3961326.80631</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>3985368.41347</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>5955907.757</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>91044.71016</v>
@@ -2675,343 +2801,386 @@
         <v>126849.58455</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>117037.69555</v>
+        <v>118083.91229</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>183496.99402</v>
+        <v>183788.60421</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>84645.38846</v>
+        <v>101945.28209</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>102120.31417</v>
+        <v>118461.23667</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>164225.56135</v>
+        <v>164314.88481</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>335606.0726599999</v>
+        <v>335606.07266</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>242798.52417</v>
+        <v>242886.92185</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>246566.01344</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>247189.2207</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>317221.078</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>576128.52344</v>
+        <v>576128.5234399999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1024016.22323</v>
+        <v>1024086.54101</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>846591.6329799999</v>
+        <v>846865.1025600001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1567870.99414</v>
+        <v>1573428.76352</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>995490.0546700001</v>
+        <v>1023546.75923</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1903962.57268</v>
+        <v>1984322.2546</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1671871.35203</v>
+        <v>1848644.55633</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>2550377.76665</v>
+        <v>2563933.72824</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>3113757.16332</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>3818589.76544</v>
+        <v>3823735.80846</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>3714760.79287</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>3738179.192770001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>5638686.679</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>755536.17609</v>
+        <v>755536.1760900001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>790726.20317</v>
+        <v>791002.1703500001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>3740767.86657</v>
+        <v>3741172.707530001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>1343537.93666</v>
+        <v>1359248.56222</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>1242566.22998</v>
+        <v>1297906.57462</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>3134663.97423</v>
+        <v>3181239.71977</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>2084548.67722</v>
+        <v>2350878.46851</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>4760677.464379999</v>
+        <v>4764522.64385</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>3815289.330750001</v>
+        <v>3815289.33075</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>4814775.035329999</v>
+        <v>4829972.47373</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>5441957.62782</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>5469070.32196</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>4839676.246</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>33960.36002</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>26740.13166</v>
+        <v>26765.23497</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>32298.65204</v>
+        <v>32310.42068</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>16137.47765</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>16472.74733</v>
+        <v>16519.90273</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>20646.86888</v>
+        <v>22204.7777</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>37493.49465</v>
+        <v>38508.90066</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>54854.11206</v>
+        <v>54918.25525</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>45210.88709</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>44297.94837</v>
+        <v>44305.81521</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>45466.56031</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>45557.36353</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>67035.56299999999</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>150810.35583</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>154957.99113</v>
+        <v>155060.61462</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>172910.66445</v>
+        <v>173101.81861</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>197834.83681</v>
+        <v>205290.99304</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>270832.38476</v>
+        <v>275523.1909700001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>224242.91995</v>
+        <v>242715.16848</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>293730.9187799999</v>
+        <v>328651.68289</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>514453.66656</v>
+        <v>514939.54166</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>518732.46701</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>464218.24846</v>
+        <v>467152.89594</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>517520.36849</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>522461.3981899999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>630993.22</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>570765.46024</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>609028.0803799999</v>
+        <v>609176.32076</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>3535558.55008</v>
+        <v>3535760.46824</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>1129565.6222</v>
+        <v>1137820.09153</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>955261.0978900001</v>
+        <v>1005863.48092</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>2889774.185400001</v>
+        <v>2916319.77359</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1753324.26379</v>
+        <v>1983717.88496</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>4191369.68576</v>
+        <v>4194664.84694</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>3251345.976650001</v>
+        <v>3251345.97665</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>4306258.8385</v>
+        <v>4318513.76258</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>4878970.69902</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>4901051.56024</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>4141647.463</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>2643094.58369</v>
+        <v>2643156.64396</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>3627172.07124</v>
+        <v>3628456.46992</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1065052.91674</v>
+        <v>1051774.4721</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>5283631.52233</v>
+        <v>5278463.947889999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>4914522.67921</v>
+        <v>4811275.24824</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>4454073.28447</v>
+        <v>4389446.8714</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>3484413.55118</v>
+        <v>3352932.3372</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>820435.2338100002</v>
+        <v>804657.43394</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>5671515.891589999</v>
+        <v>5671515.89159</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-4073092.77107</v>
+        <v>-4082162.6485</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>6433310.690580001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>6577608.35699</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1413285.837</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>604416.98725</v>
+        <v>604417.26885</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>647982.06897</v>
+        <v>648364.7718700001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>830634.5376300002</v>
+        <v>830848.51219</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1001739.86224</v>
+        <v>1004716.13242</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1035901.35732</v>
+        <v>1046378.91439</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1118468.24826</v>
+        <v>1136592.58605</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1388007.59557</v>
+        <v>1483465.12688</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1703891.48587</v>
+        <v>1705396.83531</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>1862078.57982</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>2059192.5445</v>
+        <v>2065554.37172</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>2531222.97096</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>2598540.38164</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>3125896.251</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>2038677.59644</v>
+        <v>2038739.37511</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>2979190.00227</v>
+        <v>2980091.69805</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>234418.37911</v>
+        <v>220925.95991</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>4281891.66009</v>
+        <v>4273747.815469999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>3878621.321889999</v>
+        <v>3764896.333850001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>3335605.03621</v>
+        <v>3252854.28535</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>2096405.95561</v>
+        <v>1869467.21032</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-883456.2520600002</v>
+        <v>-900739.4013699999</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>3809437.31177</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-6132285.315570001</v>
+        <v>-6147717.02022</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>3902087.71962</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>3979067.97535</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-1712610.414</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>57260</v>
+        <v>57261</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>59715</v>
+        <v>59723</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>63440</v>
+        <v>63475</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>63445</v>
+        <v>63631</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>62725</v>
+        <v>63040</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>65022</v>
+        <v>65565</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>69735</v>
+        <v>71215</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>76363</v>
+        <v>76772</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>82885</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>84371</v>
+        <v>86758</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>83207</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>87121</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>91949</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>